--- a/test/official_test_case_3.xlsx
+++ b/test/official_test_case_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\WEHI\prod\forecasting-with-workday-project\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limnaroline/forecasting-project/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04170784-351C-4F88-981D-A583D15E74A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EE12659-FEC0-AA40-BDC8-7BE85E91EC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="2500" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funding" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Planned Amount</t>
   </si>
   <si>
-    <t>Latest Payment Date</t>
-  </si>
-  <si>
     <t>Salary, Travel</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
   </si>
 </sst>
 </file>
@@ -455,9 +455,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,12 +477,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>45658</v>
@@ -494,12 +494,12 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>45658</v>
@@ -511,12 +511,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>45658</v>
@@ -528,199 +528,199 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D5" s="1">
+        <v>46022</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45658</v>
-      </c>
-      <c r="D5" s="1">
-        <v>46022</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D6" s="1">
+        <v>46022</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45658</v>
-      </c>
-      <c r="D6" s="1">
-        <v>46022</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D7" s="1">
+        <v>46022</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45658</v>
-      </c>
-      <c r="D7" s="1">
-        <v>46022</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D8" s="1">
+        <v>46022</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45658</v>
-      </c>
-      <c r="D8" s="1">
-        <v>46022</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D9" s="1">
+        <v>46022</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45658</v>
-      </c>
-      <c r="D9" s="1">
-        <v>46022</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D10" s="1">
+        <v>46022</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45658</v>
-      </c>
-      <c r="D10" s="1">
-        <v>46022</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D11" s="1">
+        <v>46022</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45658</v>
-      </c>
-      <c r="D11" s="1">
-        <v>46022</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D12" s="1">
+        <v>46022</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45658</v>
-      </c>
-      <c r="D12" s="1">
-        <v>46022</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D13" s="1">
+        <v>46022</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45658</v>
-      </c>
-      <c r="D13" s="1">
-        <v>46022</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D14" s="1">
+        <v>46022</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45658</v>
-      </c>
-      <c r="D14" s="1">
-        <v>46022</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D15" s="1">
+        <v>46022</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45658</v>
-      </c>
-      <c r="D15" s="1">
-        <v>46022</v>
-      </c>
-      <c r="E15" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>45658</v>
@@ -743,12 +743,12 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -762,21 +762,21 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2">
         <v>3000</v>
@@ -785,15 +785,15 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>8000</v>
@@ -802,15 +802,15 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>5000</v>
@@ -819,15 +819,15 @@
         <v>45726</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>2000</v>
@@ -836,15 +836,15 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>2000</v>
@@ -853,15 +853,15 @@
         <v>45797</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>3000</v>
@@ -870,15 +870,15 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>3000</v>
@@ -887,15 +887,15 @@
         <v>45884</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
         <v>3000</v>
@@ -904,15 +904,15 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
         <v>3000</v>
@@ -921,15 +921,15 @@
         <v>45955</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
         <v>3000</v>
